--- a/09-Excell/Zustand 2/W'keitsbaum - Z2.xlsx
+++ b/09-Excell/Zustand 2/W'keitsbaum - Z2.xlsx
@@ -624,134 +624,134 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -798,63 +798,63 @@
       <sheetData sheetId="0">
         <row r="56">
           <cell r="AD56">
-            <v>4520688351.2953234</v>
+            <v>4521254929.1747208</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
           <cell r="AD56">
-            <v>4522088320.0944185</v>
+            <v>4522654897.9738159</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
           <cell r="AD56">
-            <v>4522845243.2858286</v>
+            <v>4523411821.165226</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
           <cell r="AD56">
-            <v>4949777925.9710617</v>
+            <v>4950398285.826932</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
           <cell r="AD56">
-            <v>4951296258.5749168</v>
+            <v>4951916618.4307871</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
           <cell r="AD56">
-            <v>4952112942.7433853</v>
+            <v>4952733302.5992546</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
           <cell r="AD56">
-            <v>5357731535.533144</v>
+            <v>5358403027.6673222</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
           <cell r="AD56">
-            <v>5359362400.4653139</v>
+            <v>5360033892.5994921</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
           <cell r="AD56">
-            <v>5360235901.3431072</v>
+            <v>5360907393.4772854</v>
           </cell>
         </row>
       </sheetData>
@@ -881,63 +881,63 @@
       <sheetData sheetId="0">
         <row r="56">
           <cell r="AD56">
-            <v>4254085531.8711419</v>
+            <v>4254652109.7505398</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
           <cell r="AD56">
-            <v>4254105000.2851825</v>
+            <v>4254671578.1645803</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
           <cell r="AD56">
-            <v>4254115526.3012552</v>
+            <v>4254682104.1806531</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
           <cell r="AD56">
-            <v>4657756371.8376455</v>
+            <v>4658376731.6935148</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
           <cell r="AD56">
-            <v>4657777486.2569952</v>
+            <v>4658397846.1128654</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
           <cell r="AD56">
-            <v>4657788843.3285217</v>
+            <v>4658409203.184392</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
           <cell r="AD56">
-            <v>5041544532.9526424</v>
+            <v>5042216025.0868206</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
           <cell r="AD56">
-            <v>5041567212.283145</v>
+            <v>5042238704.4173231</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
           <cell r="AD56">
-            <v>5041579359.466301</v>
+            <v>5042250851.6004801</v>
           </cell>
         </row>
       </sheetData>
@@ -964,63 +964,63 @@
       <sheetData sheetId="0">
         <row r="56">
           <cell r="AD56">
-            <v>4253948600.2188191</v>
+            <v>4254458520.310277</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
           <cell r="AD56">
-            <v>4253964638.7829332</v>
+            <v>4254474558.8743911</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
           <cell r="AD56">
-            <v>4253973310.3770008</v>
+            <v>4254483230.4684591</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
           <cell r="AD56">
-            <v>4657683579.9077606</v>
+            <v>4658241903.7780437</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
           <cell r="AD56">
-            <v>4657700974.491847</v>
+            <v>4658259298.3621302</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
           <cell r="AD56">
-            <v>4657710330.7299986</v>
+            <v>4658268654.6002817</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
           <cell r="AD56">
-            <v>5041609730.7185488</v>
+            <v>5042214073.6393089</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
           <cell r="AD56">
-            <v>5041628414.5151119</v>
+            <v>5042232757.435873</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
           <cell r="AD56">
-            <v>5041638421.66675</v>
+            <v>5042242764.5875101</v>
           </cell>
         </row>
       </sheetData>
@@ -1294,7 +1294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AA40" sqref="AA40"/>
     </sheetView>
   </sheetViews>
@@ -1319,89 +1319,89 @@
   <sheetData>
     <row r="1" spans="2:28" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:28" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="2:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="6"/>
-      <c r="W3" s="41" t="s">
+      <c r="W3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="41" t="s">
+      <c r="X3" s="49"/>
+      <c r="Y3" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="41" t="s">
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="42"/>
+      <c r="AB3" s="49"/>
     </row>
     <row r="4" spans="2:28" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="6"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="44"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="51"/>
     </row>
     <row r="5" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="6"/>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="68"/>
-      <c r="L5" s="65" t="s">
+      <c r="H5" s="59"/>
+      <c r="I5" s="60"/>
+      <c r="L5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="Q5" s="41" t="s">
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="Q5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="42"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="46"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="49"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="53"/>
     </row>
     <row r="6" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="71"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="46"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="63"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="53"/>
     </row>
     <row r="7" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V7" s="33"/>
+      <c r="V7" s="56"/>
       <c r="W7" s="25" t="s">
         <v>6</v>
       </c>
@@ -1422,24 +1422,24 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="41"/>
       <c r="I8" s="2"/>
       <c r="J8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="37"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="69"/>
     </row>
     <row r="9" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="30" t="str">
         <f>IF(X35&lt;Z35,"Variante 1",IF(Z35&lt;AB35,"Variante 2","Variante 3"))</f>
         <v>Variante 3</v>
@@ -1474,88 +1474,88 @@
       </c>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
-      <c r="V9" s="33"/>
+      <c r="V9" s="56"/>
       <c r="W9" s="27">
         <f>'[1]SB1-SU1'!$AD$56</f>
-        <v>4520688351.2953234</v>
+        <v>4521254929.1747208</v>
       </c>
       <c r="X9" s="27">
         <f>W9*S9</f>
-        <v>56508604.391191542</v>
+        <v>56515686.614684016</v>
       </c>
       <c r="Y9" s="27">
         <f>'[2]SB1-SU1'!$AD$56</f>
-        <v>4254085531.8711419</v>
+        <v>4254652109.7505398</v>
       </c>
       <c r="Z9" s="27">
         <f>Y9*S9</f>
-        <v>53176069.14838928</v>
+        <v>53183151.371881753</v>
       </c>
       <c r="AA9" s="27">
         <f>'[3]SB1-SU1'!$AD$56</f>
-        <v>4253948600.2188191</v>
+        <v>4254458520.310277</v>
       </c>
       <c r="AB9" s="27">
         <f>AA9*S9</f>
-        <v>53174357.502735242</v>
+        <v>53180731.503878467</v>
       </c>
     </row>
     <row r="10" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="33"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="56"/>
     </row>
     <row r="11" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G11" s="3"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="33"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="56"/>
     </row>
     <row r="12" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G12" s="3"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
       <c r="L12" s="16"/>
       <c r="M12" s="14"/>
       <c r="N12" s="17" t="s">
@@ -1575,86 +1575,86 @@
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="15"/>
-      <c r="V12" s="33"/>
+      <c r="V12" s="56"/>
       <c r="W12" s="27">
         <f>'[1]SB1-SU2'!$AD$56</f>
-        <v>4522088320.0944185</v>
+        <v>4522654897.9738159</v>
       </c>
       <c r="X12" s="27">
         <f>W12*S12</f>
-        <v>650050196.01357257</v>
+        <v>650131641.58373594</v>
       </c>
       <c r="Y12" s="27">
         <f>'[2]SB1-SU2'!$AD$56</f>
-        <v>4254105000.2851825</v>
+        <v>4254671578.1645803</v>
       </c>
       <c r="Z12" s="27">
         <f>Y12*S12</f>
-        <v>611527593.79099488</v>
+        <v>611609039.36115837</v>
       </c>
       <c r="AA12" s="27">
         <f>'[3]SB1-SU2'!$AD$56</f>
-        <v>4253964638.7829332</v>
+        <v>4254474558.8743911</v>
       </c>
       <c r="AB12" s="27">
         <f>AA12*S12</f>
-        <v>611507416.82504666</v>
+        <v>611580717.83819366</v>
       </c>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G13" s="3"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="33"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="56"/>
     </row>
     <row r="14" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G14" s="3"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="33"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="56"/>
     </row>
     <row r="15" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G15" s="3"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
       <c r="L15" s="16"/>
       <c r="M15" s="14"/>
       <c r="N15" s="17" t="s">
@@ -1674,79 +1674,79 @@
       </c>
       <c r="T15" s="14"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="33"/>
+      <c r="V15" s="56"/>
       <c r="W15" s="27">
         <f>'[1]SB1-SU3'!$AD$56</f>
-        <v>4522845243.2858286</v>
+        <v>4523411821.165226</v>
       </c>
       <c r="X15" s="27">
         <f>W15*S15</f>
-        <v>424016741.55804646</v>
+        <v>424069858.23423994</v>
       </c>
       <c r="Y15" s="27">
         <f>'[2]SB1-SU3'!$AD$56</f>
-        <v>4254115526.3012552</v>
+        <v>4254682104.1806531</v>
       </c>
       <c r="Z15" s="27">
         <f>Y15*S15</f>
-        <v>398823330.59074271</v>
+        <v>398876447.26693624</v>
       </c>
       <c r="AA15" s="27">
         <f>'[3]SB1-SU3'!$AD$56</f>
-        <v>4253973310.3770008</v>
+        <v>4254483230.4684591</v>
       </c>
       <c r="AB15" s="27">
         <f>AA15*S15</f>
-        <v>398809997.84784383</v>
+        <v>398857802.85641801</v>
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G16" s="3"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="37"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="69"/>
     </row>
     <row r="17" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G17" s="3"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="33"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="55"/>
+      <c r="AB17" s="56"/>
     </row>
     <row r="18" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G18" s="3"/>
@@ -1777,86 +1777,86 @@
       </c>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
-      <c r="V18" s="33"/>
+      <c r="V18" s="56"/>
       <c r="W18" s="27">
         <f>'[1]SB2-SU1'!$AD$56</f>
-        <v>4949777925.9710617</v>
+        <v>4950398285.826932</v>
       </c>
       <c r="X18" s="27">
         <f>W18*S18</f>
-        <v>123744448.14927655</v>
+        <v>123759957.1456733</v>
       </c>
       <c r="Y18" s="27">
         <f>'[2]SB2-SU1'!$AD$56</f>
-        <v>4657756371.8376455</v>
+        <v>4658376731.6935148</v>
       </c>
       <c r="Z18" s="27">
         <f>Y18*S18</f>
-        <v>116443909.29594114</v>
+        <v>116459418.29233788</v>
       </c>
       <c r="AA18" s="27">
         <f>'[3]SB2-SU1'!$AD$56</f>
-        <v>4657683579.9077606</v>
+        <v>4658241903.7780437</v>
       </c>
       <c r="AB18" s="27">
         <f>AA18*S18</f>
-        <v>116442089.49769402</v>
+        <v>116456047.5944511</v>
       </c>
     </row>
     <row r="19" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G19" s="3"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="37"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="68"/>
+      <c r="Z19" s="69"/>
+      <c r="AA19" s="68"/>
+      <c r="AB19" s="69"/>
     </row>
     <row r="20" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G20" s="3"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="33"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="56"/>
     </row>
     <row r="21" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="3"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
       <c r="L21" s="16"/>
       <c r="M21" s="13"/>
       <c r="N21" s="17" t="s">
@@ -1876,86 +1876,86 @@
       </c>
       <c r="T21" s="14"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="33"/>
+      <c r="V21" s="56"/>
       <c r="W21" s="27">
         <f>'[1]SB2-SU2'!$AD$56</f>
-        <v>4951296258.5749168</v>
+        <v>4951916618.4307871</v>
       </c>
       <c r="X21" s="27">
         <f>W21*S21</f>
-        <v>1423497674.3402884</v>
+        <v>1423676027.7988513</v>
       </c>
       <c r="Y21" s="27">
         <f>'[2]SB2-SU2'!$AD$56</f>
-        <v>4657777486.2569952</v>
+        <v>4658397846.1128654</v>
       </c>
       <c r="Z21" s="27">
         <f>Y21*S21</f>
-        <v>1339111027.2988861</v>
+        <v>1339289380.7574487</v>
       </c>
       <c r="AA21" s="27">
         <f>'[3]SB2-SU2'!$AD$56</f>
-        <v>4657700974.491847</v>
+        <v>4658259298.3621302</v>
       </c>
       <c r="AB21" s="27">
         <f>AA21*S21</f>
-        <v>1339089030.1664059</v>
+        <v>1339249548.2791123</v>
       </c>
     </row>
     <row r="22" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G22" s="3"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="37"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="68"/>
+      <c r="Z22" s="69"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="69"/>
     </row>
     <row r="23" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G23" s="3"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="33"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="56"/>
     </row>
     <row r="24" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="3"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
       <c r="L24" s="16"/>
       <c r="M24" s="13"/>
       <c r="N24" s="17" t="s">
@@ -1975,79 +1975,79 @@
       </c>
       <c r="T24" s="14"/>
       <c r="U24" s="15"/>
-      <c r="V24" s="33"/>
+      <c r="V24" s="56"/>
       <c r="W24" s="27">
         <f>'[1]SB2-SU3'!$AD$56</f>
-        <v>4952112942.7433853</v>
+        <v>4952733302.5992546</v>
       </c>
       <c r="X24" s="27">
         <f>W24*S24</f>
-        <v>928521176.76438475</v>
+        <v>928637494.23736024</v>
       </c>
       <c r="Y24" s="27">
         <f>'[2]SB2-SU3'!$AD$56</f>
-        <v>4657788843.3285217</v>
+        <v>4658409203.184392</v>
       </c>
       <c r="Z24" s="27">
         <f>Y24*S24</f>
-        <v>873335408.12409782</v>
+        <v>873451725.59707355</v>
       </c>
       <c r="AA24" s="27">
         <f>'[3]SB2-SU3'!$AD$56</f>
-        <v>4657710330.7299986</v>
+        <v>4658268654.6002817</v>
       </c>
       <c r="AB24" s="27">
         <f>AA24*S24</f>
-        <v>873320687.01187468</v>
+        <v>873425372.73755288</v>
       </c>
     </row>
     <row r="25" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G25" s="3"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="37"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="68"/>
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="69"/>
     </row>
     <row r="26" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G26" s="3"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="33"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="56"/>
     </row>
     <row r="27" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G27" s="16"/>
@@ -2078,71 +2078,71 @@
       </c>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
-      <c r="V27" s="33"/>
+      <c r="V27" s="56"/>
       <c r="W27" s="27">
         <f>'[1]SB3-SU1'!$AD$56</f>
-        <v>5357731535.533144</v>
+        <v>5358403027.6673222</v>
       </c>
       <c r="X27" s="27">
         <f>W27*S27</f>
-        <v>66971644.194164306</v>
+        <v>66980037.845841527</v>
       </c>
       <c r="Y27" s="27">
         <f>'[2]SB3-SU1'!$AD$56</f>
-        <v>5041544532.9526424</v>
+        <v>5042216025.0868206</v>
       </c>
       <c r="Z27" s="27">
         <f>Y27*S27</f>
-        <v>63019306.661908031</v>
+        <v>63027700.313585259</v>
       </c>
       <c r="AA27" s="27">
         <f>'[3]SB3-SU1'!$AD$56</f>
-        <v>5041609730.7185488</v>
+        <v>5042214073.6393089</v>
       </c>
       <c r="AB27" s="27">
         <f>AA27*S27</f>
-        <v>63020121.633981861</v>
+        <v>63027675.920491368</v>
       </c>
     </row>
     <row r="28" spans="7:28" x14ac:dyDescent="0.3">
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="37"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="69"/>
+      <c r="Y28" s="68"/>
+      <c r="Z28" s="69"/>
+      <c r="AA28" s="68"/>
+      <c r="AB28" s="69"/>
     </row>
     <row r="29" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L29" s="3"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="33"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="55"/>
+      <c r="AB29" s="56"/>
     </row>
     <row r="30" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L30" s="16"/>
@@ -2164,69 +2164,69 @@
       </c>
       <c r="T30" s="14"/>
       <c r="U30" s="15"/>
-      <c r="V30" s="33"/>
+      <c r="V30" s="56"/>
       <c r="W30" s="27">
         <f>'[1]SB3-SU2'!$AD$56</f>
-        <v>5359362400.4653139</v>
+        <v>5360033892.5994921</v>
       </c>
       <c r="X30" s="27">
         <f>W30*S30</f>
-        <v>770408345.06688881</v>
+        <v>770504872.0611769</v>
       </c>
       <c r="Y30" s="27">
         <f>'[2]SB3-SU2'!$AD$56</f>
-        <v>5041567212.283145</v>
+        <v>5042238704.4173231</v>
       </c>
       <c r="Z30" s="27">
         <f>Y30*S30</f>
-        <v>724725286.76570201</v>
+        <v>724821813.7599901</v>
       </c>
       <c r="AA30" s="27">
         <f>'[3]SB3-SU2'!$AD$56</f>
-        <v>5041628414.5151119</v>
+        <v>5042232757.435873</v>
       </c>
       <c r="AB30" s="27">
         <f>AA30*S30</f>
-        <v>724734084.58654726</v>
+        <v>724820958.88140666</v>
       </c>
     </row>
     <row r="31" spans="7:28" x14ac:dyDescent="0.3">
       <c r="L31" s="3"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="37"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="68"/>
+      <c r="X31" s="69"/>
+      <c r="Y31" s="68"/>
+      <c r="Z31" s="69"/>
+      <c r="AA31" s="68"/>
+      <c r="AB31" s="69"/>
     </row>
     <row r="32" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L32" s="3"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="33"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="55"/>
+      <c r="AB32" s="56"/>
     </row>
     <row r="33" spans="12:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L33" s="16"/>
@@ -2248,38 +2248,38 @@
       </c>
       <c r="T33" s="14"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="33"/>
+      <c r="V33" s="56"/>
       <c r="W33" s="27">
         <f>'[1]SB3-SU3'!$AD$56</f>
-        <v>5360235901.3431072</v>
+        <v>5360907393.4772854</v>
       </c>
       <c r="X33" s="27">
         <f>W33*S33</f>
-        <v>502522115.7509163</v>
+        <v>502585068.1384955</v>
       </c>
       <c r="Y33" s="27">
         <f>'[2]SB3-SU3'!$AD$56</f>
-        <v>5041579359.466301</v>
+        <v>5042250851.6004801</v>
       </c>
       <c r="Z33" s="27">
         <f>Y33*S33</f>
-        <v>472648064.94996572</v>
+        <v>472711017.33754504</v>
       </c>
       <c r="AA33" s="27">
         <f>'[3]SB3-SU3'!$AD$56</f>
-        <v>5041638421.66675</v>
+        <v>5042242764.5875101</v>
       </c>
       <c r="AB33" s="27">
         <f>AA33*S33</f>
-        <v>472653602.03125781</v>
+        <v>472710259.1800791</v>
       </c>
     </row>
     <row r="34" spans="12:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W34" s="34"/>
+      <c r="W34" s="72"/>
       <c r="X34" s="29"/>
-      <c r="Y34" s="34"/>
+      <c r="Y34" s="72"/>
       <c r="Z34" s="29"/>
-      <c r="AA34" s="34"/>
+      <c r="AA34" s="72"/>
       <c r="AB34" s="29"/>
       <c r="AC34" s="2"/>
     </row>
@@ -2288,24 +2288,24 @@
         <f>SUM(S9:S33)</f>
         <v>1</v>
       </c>
-      <c r="U35" s="31" t="s">
+      <c r="U35" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="V35" s="32"/>
-      <c r="W35" s="35"/>
+      <c r="V35" s="71"/>
+      <c r="W35" s="73"/>
       <c r="X35" s="28">
         <f>SUM(X9,X12,X15,X18,X21,X24,X27,X30,X33)</f>
-        <v>4946240946.2287302</v>
-      </c>
-      <c r="Y35" s="35"/>
+        <v>4946860643.660059</v>
+      </c>
+      <c r="Y35" s="73"/>
       <c r="Z35" s="28">
         <f>SUM(Z9,Z12,Z15,Z18,Z21,Z24,Z27,Z30,Z33)</f>
-        <v>4652809996.6266279</v>
-      </c>
-      <c r="AA35" s="35"/>
+        <v>4653429694.0579567</v>
+      </c>
+      <c r="AA35" s="73"/>
       <c r="AB35" s="28">
         <f>SUM(AB9,AB12,AB15,AB18,AB21,AB24,AB27,AB30,AB33,)</f>
-        <v>4652751387.1033869</v>
+        <v>4653309114.791584</v>
       </c>
       <c r="AC35" s="2"/>
     </row>
@@ -2585,6 +2585,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="V7:V33"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="Y34:Y35"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="W28:X29"/>
+    <mergeCell ref="Y28:Z29"/>
+    <mergeCell ref="AA28:AB29"/>
+    <mergeCell ref="W31:X32"/>
+    <mergeCell ref="Y31:Z32"/>
+    <mergeCell ref="AA31:AB32"/>
+    <mergeCell ref="W22:X23"/>
+    <mergeCell ref="Y22:Z23"/>
+    <mergeCell ref="AA22:AB23"/>
+    <mergeCell ref="W25:X26"/>
+    <mergeCell ref="Y25:Z26"/>
+    <mergeCell ref="M28:U29"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA25:AB26"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="AA16:AB17"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="Y19:Z20"/>
+    <mergeCell ref="AA19:AB20"/>
+    <mergeCell ref="W3:X5"/>
+    <mergeCell ref="H19:K26"/>
+    <mergeCell ref="L25:U26"/>
+    <mergeCell ref="M22:U23"/>
+    <mergeCell ref="M19:U20"/>
     <mergeCell ref="B2:D5"/>
     <mergeCell ref="B8:C10"/>
     <mergeCell ref="M31:U32"/>
@@ -2601,40 +2635,6 @@
     <mergeCell ref="L5:N6"/>
     <mergeCell ref="G5:I6"/>
     <mergeCell ref="Q5:T6"/>
-    <mergeCell ref="W3:X5"/>
-    <mergeCell ref="H19:K26"/>
-    <mergeCell ref="L25:U26"/>
-    <mergeCell ref="M22:U23"/>
-    <mergeCell ref="M19:U20"/>
-    <mergeCell ref="M28:U29"/>
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA25:AB26"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="AA16:AB17"/>
-    <mergeCell ref="W19:X20"/>
-    <mergeCell ref="Y19:Z20"/>
-    <mergeCell ref="AA19:AB20"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="V7:V33"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="Y34:Y35"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="W28:X29"/>
-    <mergeCell ref="Y28:Z29"/>
-    <mergeCell ref="AA28:AB29"/>
-    <mergeCell ref="W31:X32"/>
-    <mergeCell ref="Y31:Z32"/>
-    <mergeCell ref="AA31:AB32"/>
-    <mergeCell ref="W22:X23"/>
-    <mergeCell ref="Y22:Z23"/>
-    <mergeCell ref="AA22:AB23"/>
-    <mergeCell ref="W25:X26"/>
-    <mergeCell ref="Y25:Z26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/09-Excell/Zustand 2/W'keitsbaum - Z2.xlsx
+++ b/09-Excell/Zustand 2/W'keitsbaum - Z2.xlsx
@@ -19,7 +19,7 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -624,50 +624,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -696,62 +675,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -798,63 +798,63 @@
       <sheetData sheetId="0">
         <row r="56">
           <cell r="AD56">
-            <v>4521254929.1747208</v>
+            <v>662833852.5568192</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
           <cell r="AD56">
-            <v>4522654897.9738159</v>
+            <v>663042463.01576078</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
           <cell r="AD56">
-            <v>4523411821.165226</v>
+            <v>663155252.73967469</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
           <cell r="AD56">
-            <v>4950398285.826932</v>
+            <v>725720495.40372837</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
           <cell r="AD56">
-            <v>4951916618.4307871</v>
+            <v>725946743.34724951</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
           <cell r="AD56">
-            <v>4952733302.5992546</v>
+            <v>726068438.10183001</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
           <cell r="AD56">
-            <v>5358403027.6673222</v>
+            <v>785511219.86399519</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
           <cell r="AD56">
-            <v>5360033892.5994921</v>
+            <v>785754236.3393687</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
           <cell r="AD56">
-            <v>5360907393.4772854</v>
+            <v>785884397.39704406</v>
           </cell>
         </row>
       </sheetData>
@@ -881,63 +881,63 @@
       <sheetData sheetId="0">
         <row r="56">
           <cell r="AD56">
-            <v>4254652109.7505398</v>
+            <v>628728355.78755128</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
           <cell r="AD56">
-            <v>4254671578.1645803</v>
+            <v>628740997.68388927</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
           <cell r="AD56">
-            <v>4254682104.1806531</v>
+            <v>628747832.79658937</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
           <cell r="AD56">
-            <v>4658376731.6935148</v>
+            <v>688261458.39957881</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
           <cell r="AD56">
-            <v>4658397846.1128654</v>
+            <v>688275169.13633835</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
           <cell r="AD56">
-            <v>4658409203.184392</v>
+            <v>688282543.898368</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
           <cell r="AD56">
-            <v>5042216025.0868206</v>
+            <v>744864409.52835917</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
           <cell r="AD56">
-            <v>5042238704.4173231</v>
+            <v>744879136.44668579</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
           <cell r="AD56">
-            <v>5042250851.6004801</v>
+            <v>744887024.27098989</v>
           </cell>
         </row>
       </sheetData>
@@ -964,63 +964,63 @@
       <sheetData sheetId="0">
         <row r="56">
           <cell r="AD56">
-            <v>4254458520.310277</v>
+            <v>864239671.00813353</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
           <cell r="AD56">
-            <v>4254474558.8743911</v>
+            <v>864248570.45584607</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
           <cell r="AD56">
-            <v>4254483230.4684591</v>
+            <v>864253382.13333988</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
           <cell r="AD56">
-            <v>4658241903.7780437</v>
+            <v>946153558.26954329</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
           <cell r="AD56">
-            <v>4658259298.3621302</v>
+            <v>946163210.14300644</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
           <cell r="AD56">
-            <v>4658268654.6002817</v>
+            <v>946168401.71448958</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
           <cell r="AD56">
-            <v>5042214073.6393089</v>
+            <v>1024077996.5831033</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
           <cell r="AD56">
-            <v>5042232757.435873</v>
+            <v>1024088363.8122967</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
           <cell r="AD56">
-            <v>5042242764.5875101</v>
+            <v>1024093916.5614003</v>
           </cell>
         </row>
       </sheetData>
@@ -1294,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AA40" sqref="AA40"/>
+    <sheetView tabSelected="1" topLeftCell="Q13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1319,89 +1319,89 @@
   <sheetData>
     <row r="1" spans="2:28" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:28" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="2:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="6"/>
-      <c r="W3" s="48" t="s">
+      <c r="W3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="48" t="s">
+      <c r="X3" s="42"/>
+      <c r="Y3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="48" t="s">
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="49"/>
+      <c r="AB3" s="42"/>
     </row>
     <row r="4" spans="2:28" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="6"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="51"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="44"/>
     </row>
     <row r="5" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="6"/>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60"/>
-      <c r="L5" s="57" t="s">
+      <c r="H5" s="67"/>
+      <c r="I5" s="68"/>
+      <c r="L5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="Q5" s="48" t="s">
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="Q5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="49"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="53"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="42"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="46"/>
     </row>
     <row r="6" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="53"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="71"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="46"/>
     </row>
     <row r="7" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V7" s="56"/>
+      <c r="V7" s="33"/>
       <c r="W7" s="25" t="s">
         <v>6</v>
       </c>
@@ -1422,27 +1422,27 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="41"/>
+      <c r="C8" s="60"/>
       <c r="I8" s="2"/>
       <c r="J8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="69"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="37"/>
     </row>
     <row r="9" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="30" t="str">
         <f>IF(X35&lt;Z35,"Variante 1",IF(Z35&lt;AB35,"Variante 2","Variante 3"))</f>
-        <v>Variante 3</v>
+        <v>Variante 2</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -1474,88 +1474,88 @@
       </c>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
-      <c r="V9" s="56"/>
+      <c r="V9" s="33"/>
       <c r="W9" s="27">
         <f>'[1]SB1-SU1'!$AD$56</f>
-        <v>4521254929.1747208</v>
+        <v>662833852.5568192</v>
       </c>
       <c r="X9" s="27">
         <f>W9*S9</f>
-        <v>56515686.614684016</v>
+        <v>8285423.1569602406</v>
       </c>
       <c r="Y9" s="27">
         <f>'[2]SB1-SU1'!$AD$56</f>
-        <v>4254652109.7505398</v>
+        <v>628728355.78755128</v>
       </c>
       <c r="Z9" s="27">
         <f>Y9*S9</f>
-        <v>53183151.371881753</v>
+        <v>7859104.4473443916</v>
       </c>
       <c r="AA9" s="27">
         <f>'[3]SB1-SU1'!$AD$56</f>
-        <v>4254458520.310277</v>
+        <v>864239671.00813353</v>
       </c>
       <c r="AB9" s="27">
         <f>AA9*S9</f>
-        <v>53180731.503878467</v>
+        <v>10802995.88760167</v>
       </c>
     </row>
     <row r="10" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="56"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="33"/>
     </row>
     <row r="11" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G11" s="3"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="56"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="33"/>
     </row>
     <row r="12" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G12" s="3"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
       <c r="L12" s="16"/>
       <c r="M12" s="14"/>
       <c r="N12" s="17" t="s">
@@ -1575,86 +1575,86 @@
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="15"/>
-      <c r="V12" s="56"/>
+      <c r="V12" s="33"/>
       <c r="W12" s="27">
         <f>'[1]SB1-SU2'!$AD$56</f>
-        <v>4522654897.9738159</v>
+        <v>663042463.01576078</v>
       </c>
       <c r="X12" s="27">
         <f>W12*S12</f>
-        <v>650131641.58373594</v>
+        <v>95312354.058515608</v>
       </c>
       <c r="Y12" s="27">
         <f>'[2]SB1-SU2'!$AD$56</f>
-        <v>4254671578.1645803</v>
+        <v>628740997.68388927</v>
       </c>
       <c r="Z12" s="27">
         <f>Y12*S12</f>
-        <v>611609039.36115837</v>
+        <v>90381518.417059079</v>
       </c>
       <c r="AA12" s="27">
         <f>'[3]SB1-SU2'!$AD$56</f>
-        <v>4254474558.8743911</v>
+        <v>864248570.45584607</v>
       </c>
       <c r="AB12" s="27">
         <f>AA12*S12</f>
-        <v>611580717.83819366</v>
+        <v>124235732.00302786</v>
       </c>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G13" s="3"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="55"/>
-      <c r="AB13" s="56"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="33"/>
     </row>
     <row r="14" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G14" s="3"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="56"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="33"/>
     </row>
     <row r="15" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G15" s="3"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
       <c r="L15" s="16"/>
       <c r="M15" s="14"/>
       <c r="N15" s="17" t="s">
@@ -1674,79 +1674,79 @@
       </c>
       <c r="T15" s="14"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="56"/>
+      <c r="V15" s="33"/>
       <c r="W15" s="27">
         <f>'[1]SB1-SU3'!$AD$56</f>
-        <v>4523411821.165226</v>
+        <v>663155252.73967469</v>
       </c>
       <c r="X15" s="27">
         <f>W15*S15</f>
-        <v>424069858.23423994</v>
+        <v>62170804.944344506</v>
       </c>
       <c r="Y15" s="27">
         <f>'[2]SB1-SU3'!$AD$56</f>
-        <v>4254682104.1806531</v>
+        <v>628747832.79658937</v>
       </c>
       <c r="Z15" s="27">
         <f>Y15*S15</f>
-        <v>398876447.26693624</v>
+        <v>58945109.324680254</v>
       </c>
       <c r="AA15" s="27">
         <f>'[3]SB1-SU3'!$AD$56</f>
-        <v>4254483230.4684591</v>
+        <v>864253382.13333988</v>
       </c>
       <c r="AB15" s="27">
         <f>AA15*S15</f>
-        <v>398857802.85641801</v>
+        <v>81023754.575000614</v>
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G16" s="3"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="69"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="37"/>
     </row>
     <row r="17" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G17" s="3"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="55"/>
-      <c r="AB17" s="56"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="33"/>
     </row>
     <row r="18" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G18" s="3"/>
@@ -1777,86 +1777,86 @@
       </c>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
-      <c r="V18" s="56"/>
+      <c r="V18" s="33"/>
       <c r="W18" s="27">
         <f>'[1]SB2-SU1'!$AD$56</f>
-        <v>4950398285.826932</v>
+        <v>725720495.40372837</v>
       </c>
       <c r="X18" s="27">
         <f>W18*S18</f>
-        <v>123759957.1456733</v>
+        <v>18143012.385093208</v>
       </c>
       <c r="Y18" s="27">
         <f>'[2]SB2-SU1'!$AD$56</f>
-        <v>4658376731.6935148</v>
+        <v>688261458.39957881</v>
       </c>
       <c r="Z18" s="27">
         <f>Y18*S18</f>
-        <v>116459418.29233788</v>
+        <v>17206536.459989469</v>
       </c>
       <c r="AA18" s="27">
         <f>'[3]SB2-SU1'!$AD$56</f>
-        <v>4658241903.7780437</v>
+        <v>946153558.26954329</v>
       </c>
       <c r="AB18" s="27">
         <f>AA18*S18</f>
-        <v>116456047.5944511</v>
+        <v>23653838.956738584</v>
       </c>
     </row>
     <row r="19" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G19" s="3"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="68"/>
-      <c r="AB19" s="69"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="37"/>
     </row>
     <row r="20" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G20" s="3"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="55"/>
-      <c r="AB20" s="56"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="33"/>
     </row>
     <row r="21" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="3"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
       <c r="L21" s="16"/>
       <c r="M21" s="13"/>
       <c r="N21" s="17" t="s">
@@ -1876,86 +1876,86 @@
       </c>
       <c r="T21" s="14"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="56"/>
+      <c r="V21" s="33"/>
       <c r="W21" s="27">
         <f>'[1]SB2-SU2'!$AD$56</f>
-        <v>4951916618.4307871</v>
+        <v>725946743.34724951</v>
       </c>
       <c r="X21" s="27">
         <f>W21*S21</f>
-        <v>1423676027.7988513</v>
+        <v>208709688.71233422</v>
       </c>
       <c r="Y21" s="27">
         <f>'[2]SB2-SU2'!$AD$56</f>
-        <v>4658397846.1128654</v>
+        <v>688275169.13633835</v>
       </c>
       <c r="Z21" s="27">
         <f>Y21*S21</f>
-        <v>1339289380.7574487</v>
+        <v>197879111.12669727</v>
       </c>
       <c r="AA21" s="27">
         <f>'[3]SB2-SU2'!$AD$56</f>
-        <v>4658259298.3621302</v>
+        <v>946163210.14300644</v>
       </c>
       <c r="AB21" s="27">
         <f>AA21*S21</f>
-        <v>1339249548.2791123</v>
+        <v>272021922.91611433</v>
       </c>
     </row>
     <row r="22" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G22" s="3"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="68"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="68"/>
-      <c r="Z22" s="69"/>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="69"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="37"/>
     </row>
     <row r="23" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G23" s="3"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="55"/>
-      <c r="AB23" s="56"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="33"/>
     </row>
     <row r="24" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="3"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
       <c r="L24" s="16"/>
       <c r="M24" s="13"/>
       <c r="N24" s="17" t="s">
@@ -1975,79 +1975,79 @@
       </c>
       <c r="T24" s="14"/>
       <c r="U24" s="15"/>
-      <c r="V24" s="56"/>
+      <c r="V24" s="33"/>
       <c r="W24" s="27">
         <f>'[1]SB2-SU3'!$AD$56</f>
-        <v>4952733302.5992546</v>
+        <v>726068438.10183001</v>
       </c>
       <c r="X24" s="27">
         <f>W24*S24</f>
-        <v>928637494.23736024</v>
+        <v>136137832.14409313</v>
       </c>
       <c r="Y24" s="27">
         <f>'[2]SB2-SU3'!$AD$56</f>
-        <v>4658409203.184392</v>
+        <v>688282543.898368</v>
       </c>
       <c r="Z24" s="27">
         <f>Y24*S24</f>
-        <v>873451725.59707355</v>
+        <v>129052976.98094401</v>
       </c>
       <c r="AA24" s="27">
         <f>'[3]SB2-SU3'!$AD$56</f>
-        <v>4658268654.6002817</v>
+        <v>946168401.71448958</v>
       </c>
       <c r="AB24" s="27">
         <f>AA24*S24</f>
-        <v>873425372.73755288</v>
+        <v>177406575.3214668</v>
       </c>
     </row>
     <row r="25" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G25" s="3"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="68"/>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="68"/>
-      <c r="AB25" s="69"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="37"/>
     </row>
     <row r="26" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G26" s="3"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="55"/>
-      <c r="AB26" s="56"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="33"/>
     </row>
     <row r="27" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G27" s="16"/>
@@ -2078,71 +2078,71 @@
       </c>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
-      <c r="V27" s="56"/>
+      <c r="V27" s="33"/>
       <c r="W27" s="27">
         <f>'[1]SB3-SU1'!$AD$56</f>
-        <v>5358403027.6673222</v>
+        <v>785511219.86399519</v>
       </c>
       <c r="X27" s="27">
         <f>W27*S27</f>
-        <v>66980037.845841527</v>
+        <v>9818890.2482999396</v>
       </c>
       <c r="Y27" s="27">
         <f>'[2]SB3-SU1'!$AD$56</f>
-        <v>5042216025.0868206</v>
+        <v>744864409.52835917</v>
       </c>
       <c r="Z27" s="27">
         <f>Y27*S27</f>
-        <v>63027700.313585259</v>
+        <v>9310805.1191044897</v>
       </c>
       <c r="AA27" s="27">
         <f>'[3]SB3-SU1'!$AD$56</f>
-        <v>5042214073.6393089</v>
+        <v>1024077996.5831033</v>
       </c>
       <c r="AB27" s="27">
         <f>AA27*S27</f>
-        <v>63027675.920491368</v>
+        <v>12800974.957288792</v>
       </c>
     </row>
     <row r="28" spans="7:28" x14ac:dyDescent="0.3">
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="69"/>
-      <c r="Y28" s="68"/>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="68"/>
-      <c r="AB28" s="69"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="37"/>
     </row>
     <row r="29" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L29" s="3"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="55"/>
-      <c r="AB29" s="56"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="33"/>
     </row>
     <row r="30" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L30" s="16"/>
@@ -2164,69 +2164,69 @@
       </c>
       <c r="T30" s="14"/>
       <c r="U30" s="15"/>
-      <c r="V30" s="56"/>
+      <c r="V30" s="33"/>
       <c r="W30" s="27">
         <f>'[1]SB3-SU2'!$AD$56</f>
-        <v>5360033892.5994921</v>
+        <v>785754236.3393687</v>
       </c>
       <c r="X30" s="27">
         <f>W30*S30</f>
-        <v>770504872.0611769</v>
+        <v>112952171.47378424</v>
       </c>
       <c r="Y30" s="27">
         <f>'[2]SB3-SU2'!$AD$56</f>
-        <v>5042238704.4173231</v>
+        <v>744879136.44668579</v>
       </c>
       <c r="Z30" s="27">
         <f>Y30*S30</f>
-        <v>724821813.7599901</v>
+        <v>107076375.86421107</v>
       </c>
       <c r="AA30" s="27">
         <f>'[3]SB3-SU2'!$AD$56</f>
-        <v>5042232757.435873</v>
+        <v>1024088363.8122967</v>
       </c>
       <c r="AB30" s="27">
         <f>AA30*S30</f>
-        <v>724820958.88140666</v>
+        <v>147212702.29801765</v>
       </c>
     </row>
     <row r="31" spans="7:28" x14ac:dyDescent="0.3">
       <c r="L31" s="3"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="69"/>
-      <c r="Y31" s="68"/>
-      <c r="Z31" s="69"/>
-      <c r="AA31" s="68"/>
-      <c r="AB31" s="69"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="37"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="37"/>
     </row>
     <row r="32" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L32" s="3"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="55"/>
-      <c r="AB32" s="56"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="33"/>
     </row>
     <row r="33" spans="12:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L33" s="16"/>
@@ -2248,38 +2248,38 @@
       </c>
       <c r="T33" s="14"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="56"/>
+      <c r="V33" s="33"/>
       <c r="W33" s="27">
         <f>'[1]SB3-SU3'!$AD$56</f>
-        <v>5360907393.4772854</v>
+        <v>785884397.39704406</v>
       </c>
       <c r="X33" s="27">
         <f>W33*S33</f>
-        <v>502585068.1384955</v>
+        <v>73676662.255972877</v>
       </c>
       <c r="Y33" s="27">
         <f>'[2]SB3-SU3'!$AD$56</f>
-        <v>5042250851.6004801</v>
+        <v>744887024.27098989</v>
       </c>
       <c r="Z33" s="27">
         <f>Y33*S33</f>
-        <v>472711017.33754504</v>
+        <v>69833158.525405303</v>
       </c>
       <c r="AA33" s="27">
         <f>'[3]SB3-SU3'!$AD$56</f>
-        <v>5042242764.5875101</v>
+        <v>1024093916.5614003</v>
       </c>
       <c r="AB33" s="27">
         <f>AA33*S33</f>
-        <v>472710259.1800791</v>
+        <v>96008804.677631274</v>
       </c>
     </row>
     <row r="34" spans="12:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W34" s="72"/>
+      <c r="W34" s="34"/>
       <c r="X34" s="29"/>
-      <c r="Y34" s="72"/>
+      <c r="Y34" s="34"/>
       <c r="Z34" s="29"/>
-      <c r="AA34" s="72"/>
+      <c r="AA34" s="34"/>
       <c r="AB34" s="29"/>
       <c r="AC34" s="2"/>
     </row>
@@ -2288,24 +2288,24 @@
         <f>SUM(S9:S33)</f>
         <v>1</v>
       </c>
-      <c r="U35" s="70" t="s">
+      <c r="U35" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="V35" s="71"/>
-      <c r="W35" s="73"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="35"/>
       <c r="X35" s="28">
         <f>SUM(X9,X12,X15,X18,X21,X24,X27,X30,X33)</f>
-        <v>4946860643.660059</v>
-      </c>
-      <c r="Y35" s="73"/>
+        <v>725206839.37939799</v>
+      </c>
+      <c r="Y35" s="35"/>
       <c r="Z35" s="28">
         <f>SUM(Z9,Z12,Z15,Z18,Z21,Z24,Z27,Z30,Z33)</f>
-        <v>4653429694.0579567</v>
-      </c>
-      <c r="AA35" s="73"/>
+        <v>687544696.26543534</v>
+      </c>
+      <c r="AA35" s="35"/>
       <c r="AB35" s="28">
         <f>SUM(AB9,AB12,AB15,AB18,AB21,AB24,AB27,AB30,AB33,)</f>
-        <v>4653309114.791584</v>
+        <v>945167301.59288752</v>
       </c>
       <c r="AC35" s="2"/>
     </row>
@@ -2585,6 +2585,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B2:D5"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="M31:U32"/>
+    <mergeCell ref="Y3:Z5"/>
+    <mergeCell ref="AA3:AB5"/>
+    <mergeCell ref="H10:K17"/>
+    <mergeCell ref="L16:U17"/>
+    <mergeCell ref="M13:U14"/>
+    <mergeCell ref="M10:U11"/>
+    <mergeCell ref="W10:X11"/>
+    <mergeCell ref="Y10:Z11"/>
+    <mergeCell ref="AA10:AB11"/>
+    <mergeCell ref="W13:X14"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="Q5:T6"/>
+    <mergeCell ref="W3:X5"/>
+    <mergeCell ref="H19:K26"/>
+    <mergeCell ref="L25:U26"/>
+    <mergeCell ref="M22:U23"/>
+    <mergeCell ref="M19:U20"/>
+    <mergeCell ref="M28:U29"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA25:AB26"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="AA16:AB17"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="Y19:Z20"/>
+    <mergeCell ref="AA19:AB20"/>
     <mergeCell ref="U35:V35"/>
     <mergeCell ref="V7:V33"/>
     <mergeCell ref="W34:W35"/>
@@ -2601,40 +2635,6 @@
     <mergeCell ref="AA22:AB23"/>
     <mergeCell ref="W25:X26"/>
     <mergeCell ref="Y25:Z26"/>
-    <mergeCell ref="M28:U29"/>
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA25:AB26"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="AA16:AB17"/>
-    <mergeCell ref="W19:X20"/>
-    <mergeCell ref="Y19:Z20"/>
-    <mergeCell ref="AA19:AB20"/>
-    <mergeCell ref="W3:X5"/>
-    <mergeCell ref="H19:K26"/>
-    <mergeCell ref="L25:U26"/>
-    <mergeCell ref="M22:U23"/>
-    <mergeCell ref="M19:U20"/>
-    <mergeCell ref="B2:D5"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="M31:U32"/>
-    <mergeCell ref="Y3:Z5"/>
-    <mergeCell ref="AA3:AB5"/>
-    <mergeCell ref="H10:K17"/>
-    <mergeCell ref="L16:U17"/>
-    <mergeCell ref="M13:U14"/>
-    <mergeCell ref="M10:U11"/>
-    <mergeCell ref="W10:X11"/>
-    <mergeCell ref="Y10:Z11"/>
-    <mergeCell ref="AA10:AB11"/>
-    <mergeCell ref="W13:X14"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="Q5:T6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/09-Excell/Zustand 2/W'keitsbaum - Z2.xlsx
+++ b/09-Excell/Zustand 2/W'keitsbaum - Z2.xlsx
@@ -624,134 +624,134 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -797,64 +797,91 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="56">
+          <cell r="AB56">
+            <v>410240.0984112632</v>
+          </cell>
           <cell r="AD56">
-            <v>662833852.5568192</v>
+            <v>657121111.05117357</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
+          <cell r="AB56">
+            <v>411367.4509684061</v>
+          </cell>
           <cell r="AD56">
-            <v>663042463.01576078</v>
+            <v>657388000.59881794</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
+          <cell r="AB56">
+            <v>412494.80352554889</v>
+          </cell>
           <cell r="AD56">
-            <v>663155252.73967469</v>
+            <v>657654890.1464901</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
+          <cell r="AB56">
+            <v>449975.13351672073</v>
+          </cell>
           <cell r="AD56">
-            <v>725720495.40372837</v>
+            <v>720852183.57174861</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
+          <cell r="AB56">
+            <v>451102.48607386358</v>
+          </cell>
           <cell r="AD56">
-            <v>725946743.34724951</v>
+            <v>721119073.11995208</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
+          <cell r="AB56">
+            <v>452229.83863100648</v>
+          </cell>
           <cell r="AD56">
-            <v>726068438.10183001</v>
+            <v>721385962.66819298</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
+          <cell r="AB56">
+            <v>489710.16862217808</v>
+          </cell>
           <cell r="AD56">
-            <v>785511219.86399519</v>
+            <v>784585828.54977763</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
+          <cell r="AB56">
+            <v>490837.52117932099</v>
+          </cell>
           <cell r="AD56">
-            <v>785754236.3393687</v>
+            <v>784852718.09877813</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
+          <cell r="AB56">
+            <v>491964.87373646378</v>
+          </cell>
           <cell r="AD56">
-            <v>785884397.39704406</v>
+            <v>785119607.64782846</v>
           </cell>
         </row>
       </sheetData>
@@ -880,64 +907,91 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="56">
+          <cell r="AB56">
+            <v>497026.45542940084</v>
+          </cell>
           <cell r="AD56">
-            <v>628728355.78755128</v>
+            <v>623197464.77729452</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
+          <cell r="AB56">
+            <v>498717.48426511505</v>
+          </cell>
           <cell r="AD56">
-            <v>628740997.68388927</v>
+            <v>623212876.59464002</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
+          <cell r="AB56">
+            <v>500408.51310082944</v>
+          </cell>
           <cell r="AD56">
-            <v>628747832.79658937</v>
+            <v>623228288.41199875</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
+          <cell r="AB56">
+            <v>545142.89349602454</v>
+          </cell>
           <cell r="AD56">
-            <v>688261458.39957881</v>
+            <v>683535316.40318215</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
+          <cell r="AB56">
+            <v>546833.92233173863</v>
+          </cell>
           <cell r="AD56">
-            <v>688275169.13633835</v>
+            <v>683550728.22078991</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
+          <cell r="AB56">
+            <v>548524.95116745308</v>
+          </cell>
           <cell r="AD56">
-            <v>688282543.898368</v>
+            <v>683566140.03841567</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
+          <cell r="AB56">
+            <v>593259.33156264795</v>
+          </cell>
           <cell r="AD56">
-            <v>744864409.52835917</v>
+            <v>743876340.71527052</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
+          <cell r="AB56">
+            <v>594950.36039836227</v>
+          </cell>
           <cell r="AD56">
-            <v>744879136.44668579</v>
+            <v>743891752.53325224</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
+          <cell r="AB56">
+            <v>596641.3892340766</v>
+          </cell>
           <cell r="AD56">
-            <v>744887024.27098989</v>
+            <v>743907164.35125768</v>
           </cell>
         </row>
       </sheetData>
@@ -963,64 +1017,91 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="56">
+          <cell r="AB56">
+            <v>291906.4062237693</v>
+          </cell>
           <cell r="AD56">
-            <v>864239671.00813353</v>
+            <v>857824404.32647324</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
+          <cell r="AB56">
+            <v>293033.75878091209</v>
+          </cell>
           <cell r="AD56">
-            <v>864248570.45584607</v>
+            <v>857835283.31118321</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
+          <cell r="AB56">
+            <v>294161.11133805494</v>
+          </cell>
           <cell r="AD56">
-            <v>864253382.13333988</v>
+            <v>857846162.29589713</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
+          <cell r="AB56">
+            <v>320155.32673766423</v>
+          </cell>
           <cell r="AD56">
-            <v>946153558.26954329</v>
+            <v>940959873.23023224</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
+          <cell r="AB56">
+            <v>321282.67929480702</v>
+          </cell>
           <cell r="AD56">
-            <v>946163210.14300644</v>
+            <v>940970752.21502078</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
+          <cell r="AB56">
+            <v>322410.03185194987</v>
+          </cell>
           <cell r="AD56">
-            <v>946168401.71448958</v>
+            <v>940981631.19981468</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
+          <cell r="AB56">
+            <v>348404.24725155893</v>
+          </cell>
           <cell r="AD56">
-            <v>1024077996.5831033</v>
+            <v>1024146105.0040488</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
+          <cell r="AB56">
+            <v>349531.59980870178</v>
+          </cell>
           <cell r="AD56">
-            <v>1024088363.8122967</v>
+            <v>1024156983.9889494</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
+          <cell r="AB56">
+            <v>350658.95236584463</v>
+          </cell>
           <cell r="AD56">
-            <v>1024093916.5614003</v>
+            <v>1024167862.9738574</v>
           </cell>
         </row>
       </sheetData>
@@ -1319,89 +1400,89 @@
   <sheetData>
     <row r="1" spans="2:28" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:28" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="2:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="6"/>
-      <c r="W3" s="41" t="s">
+      <c r="W3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="41" t="s">
+      <c r="X3" s="49"/>
+      <c r="Y3" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="41" t="s">
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="42"/>
+      <c r="AB3" s="49"/>
     </row>
     <row r="4" spans="2:28" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="6"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="44"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="51"/>
     </row>
     <row r="5" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="6"/>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="68"/>
-      <c r="L5" s="65" t="s">
+      <c r="H5" s="59"/>
+      <c r="I5" s="60"/>
+      <c r="L5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="Q5" s="41" t="s">
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="Q5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="42"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="46"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="49"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="53"/>
     </row>
     <row r="6" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="71"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="46"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="63"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="53"/>
     </row>
     <row r="7" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V7" s="33"/>
+      <c r="V7" s="56"/>
       <c r="W7" s="25" t="s">
         <v>6</v>
       </c>
@@ -1422,24 +1503,24 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="41"/>
       <c r="I8" s="2"/>
       <c r="J8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="37"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="69"/>
     </row>
     <row r="9" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="30" t="str">
         <f>IF(X35&lt;Z35,"Variante 1",IF(Z35&lt;AB35,"Variante 2","Variante 3"))</f>
         <v>Variante 2</v>
@@ -1474,88 +1555,88 @@
       </c>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
-      <c r="V9" s="33"/>
+      <c r="V9" s="56"/>
       <c r="W9" s="27">
         <f>'[1]SB1-SU1'!$AD$56</f>
-        <v>662833852.5568192</v>
+        <v>657121111.05117357</v>
       </c>
       <c r="X9" s="27">
         <f>W9*S9</f>
-        <v>8285423.1569602406</v>
+        <v>8214013.8881396698</v>
       </c>
       <c r="Y9" s="27">
         <f>'[2]SB1-SU1'!$AD$56</f>
-        <v>628728355.78755128</v>
+        <v>623197464.77729452</v>
       </c>
       <c r="Z9" s="27">
         <f>Y9*S9</f>
-        <v>7859104.4473443916</v>
+        <v>7789968.3097161818</v>
       </c>
       <c r="AA9" s="27">
         <f>'[3]SB1-SU1'!$AD$56</f>
-        <v>864239671.00813353</v>
+        <v>857824404.32647324</v>
       </c>
       <c r="AB9" s="27">
         <f>AA9*S9</f>
-        <v>10802995.88760167</v>
+        <v>10722805.054080917</v>
       </c>
     </row>
     <row r="10" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="33"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="56"/>
     </row>
     <row r="11" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G11" s="3"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="33"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="56"/>
     </row>
     <row r="12" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G12" s="3"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
       <c r="L12" s="16"/>
       <c r="M12" s="14"/>
       <c r="N12" s="17" t="s">
@@ -1575,86 +1656,86 @@
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="15"/>
-      <c r="V12" s="33"/>
+      <c r="V12" s="56"/>
       <c r="W12" s="27">
         <f>'[1]SB1-SU2'!$AD$56</f>
-        <v>663042463.01576078</v>
+        <v>657388000.59881794</v>
       </c>
       <c r="X12" s="27">
         <f>W12*S12</f>
-        <v>95312354.058515608</v>
+        <v>94499525.086080074</v>
       </c>
       <c r="Y12" s="27">
         <f>'[2]SB1-SU2'!$AD$56</f>
-        <v>628740997.68388927</v>
+        <v>623212876.59464002</v>
       </c>
       <c r="Z12" s="27">
         <f>Y12*S12</f>
-        <v>90381518.417059079</v>
+        <v>89586851.010479495</v>
       </c>
       <c r="AA12" s="27">
         <f>'[3]SB1-SU2'!$AD$56</f>
-        <v>864248570.45584607</v>
+        <v>857835283.31118321</v>
       </c>
       <c r="AB12" s="27">
         <f>AA12*S12</f>
-        <v>124235732.00302786</v>
+        <v>123313821.97598258</v>
       </c>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G13" s="3"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="33"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="56"/>
     </row>
     <row r="14" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G14" s="3"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="33"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="56"/>
     </row>
     <row r="15" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G15" s="3"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
       <c r="L15" s="16"/>
       <c r="M15" s="14"/>
       <c r="N15" s="17" t="s">
@@ -1674,79 +1755,79 @@
       </c>
       <c r="T15" s="14"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="33"/>
+      <c r="V15" s="56"/>
       <c r="W15" s="27">
         <f>'[1]SB1-SU3'!$AD$56</f>
-        <v>663155252.73967469</v>
+        <v>657654890.1464901</v>
       </c>
       <c r="X15" s="27">
         <f>W15*S15</f>
-        <v>62170804.944344506</v>
+        <v>61655145.951233447</v>
       </c>
       <c r="Y15" s="27">
         <f>'[2]SB1-SU3'!$AD$56</f>
-        <v>628747832.79658937</v>
+        <v>623228288.41199875</v>
       </c>
       <c r="Z15" s="27">
         <f>Y15*S15</f>
-        <v>58945109.324680254</v>
+        <v>58427652.038624883</v>
       </c>
       <c r="AA15" s="27">
         <f>'[3]SB1-SU3'!$AD$56</f>
-        <v>864253382.13333988</v>
+        <v>857846162.29589713</v>
       </c>
       <c r="AB15" s="27">
         <f>AA15*S15</f>
-        <v>81023754.575000614</v>
+        <v>80423077.715240359</v>
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G16" s="3"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="37"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="69"/>
     </row>
     <row r="17" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G17" s="3"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="33"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="55"/>
+      <c r="AB17" s="56"/>
     </row>
     <row r="18" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G18" s="3"/>
@@ -1777,86 +1858,86 @@
       </c>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
-      <c r="V18" s="33"/>
+      <c r="V18" s="56"/>
       <c r="W18" s="27">
         <f>'[1]SB2-SU1'!$AD$56</f>
-        <v>725720495.40372837</v>
+        <v>720852183.57174861</v>
       </c>
       <c r="X18" s="27">
         <f>W18*S18</f>
-        <v>18143012.385093208</v>
+        <v>18021304.589293715</v>
       </c>
       <c r="Y18" s="27">
         <f>'[2]SB2-SU1'!$AD$56</f>
-        <v>688261458.39957881</v>
+        <v>683535316.40318215</v>
       </c>
       <c r="Z18" s="27">
         <f>Y18*S18</f>
-        <v>17206536.459989469</v>
+        <v>17088382.910079554</v>
       </c>
       <c r="AA18" s="27">
         <f>'[3]SB2-SU1'!$AD$56</f>
-        <v>946153558.26954329</v>
+        <v>940959873.23023224</v>
       </c>
       <c r="AB18" s="27">
         <f>AA18*S18</f>
-        <v>23653838.956738584</v>
+        <v>23523996.830755807</v>
       </c>
     </row>
     <row r="19" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G19" s="3"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="37"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="68"/>
+      <c r="Z19" s="69"/>
+      <c r="AA19" s="68"/>
+      <c r="AB19" s="69"/>
     </row>
     <row r="20" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G20" s="3"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="33"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="56"/>
     </row>
     <row r="21" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="3"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
       <c r="L21" s="16"/>
       <c r="M21" s="13"/>
       <c r="N21" s="17" t="s">
@@ -1876,86 +1957,86 @@
       </c>
       <c r="T21" s="14"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="33"/>
+      <c r="V21" s="56"/>
       <c r="W21" s="27">
         <f>'[1]SB2-SU2'!$AD$56</f>
-        <v>725946743.34724951</v>
+        <v>721119073.11995208</v>
       </c>
       <c r="X21" s="27">
         <f>W21*S21</f>
-        <v>208709688.71233422</v>
+        <v>207321733.52198622</v>
       </c>
       <c r="Y21" s="27">
         <f>'[2]SB2-SU2'!$AD$56</f>
-        <v>688275169.13633835</v>
+        <v>683550728.22078991</v>
       </c>
       <c r="Z21" s="27">
         <f>Y21*S21</f>
-        <v>197879111.12669727</v>
+        <v>196520834.36347708</v>
       </c>
       <c r="AA21" s="27">
         <f>'[3]SB2-SU2'!$AD$56</f>
-        <v>946163210.14300644</v>
+        <v>940970752.21502078</v>
       </c>
       <c r="AB21" s="27">
         <f>AA21*S21</f>
-        <v>272021922.91611433</v>
+        <v>270529091.26181847</v>
       </c>
     </row>
     <row r="22" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G22" s="3"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="37"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="68"/>
+      <c r="Z22" s="69"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="69"/>
     </row>
     <row r="23" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G23" s="3"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="33"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="56"/>
     </row>
     <row r="24" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="3"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
       <c r="L24" s="16"/>
       <c r="M24" s="13"/>
       <c r="N24" s="17" t="s">
@@ -1975,79 +2056,79 @@
       </c>
       <c r="T24" s="14"/>
       <c r="U24" s="15"/>
-      <c r="V24" s="33"/>
+      <c r="V24" s="56"/>
       <c r="W24" s="27">
         <f>'[1]SB2-SU3'!$AD$56</f>
-        <v>726068438.10183001</v>
+        <v>721385962.66819298</v>
       </c>
       <c r="X24" s="27">
         <f>W24*S24</f>
-        <v>136137832.14409313</v>
+        <v>135259868.00028619</v>
       </c>
       <c r="Y24" s="27">
         <f>'[2]SB2-SU3'!$AD$56</f>
-        <v>688282543.898368</v>
+        <v>683566140.03841567</v>
       </c>
       <c r="Z24" s="27">
         <f>Y24*S24</f>
-        <v>129052976.98094401</v>
+        <v>128168651.25720294</v>
       </c>
       <c r="AA24" s="27">
         <f>'[3]SB2-SU3'!$AD$56</f>
-        <v>946168401.71448958</v>
+        <v>940981631.19981468</v>
       </c>
       <c r="AB24" s="27">
         <f>AA24*S24</f>
-        <v>177406575.3214668</v>
+        <v>176434055.84996524</v>
       </c>
     </row>
     <row r="25" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G25" s="3"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="37"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="68"/>
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="69"/>
     </row>
     <row r="26" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G26" s="3"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="33"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="56"/>
     </row>
     <row r="27" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G27" s="16"/>
@@ -2078,71 +2159,71 @@
       </c>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
-      <c r="V27" s="33"/>
+      <c r="V27" s="56"/>
       <c r="W27" s="27">
         <f>'[1]SB3-SU1'!$AD$56</f>
-        <v>785511219.86399519</v>
+        <v>784585828.54977763</v>
       </c>
       <c r="X27" s="27">
         <f>W27*S27</f>
-        <v>9818890.2482999396</v>
+        <v>9807322.8568722215</v>
       </c>
       <c r="Y27" s="27">
         <f>'[2]SB3-SU1'!$AD$56</f>
-        <v>744864409.52835917</v>
+        <v>743876340.71527052</v>
       </c>
       <c r="Z27" s="27">
         <f>Y27*S27</f>
-        <v>9310805.1191044897</v>
+        <v>9298454.2589408811</v>
       </c>
       <c r="AA27" s="27">
         <f>'[3]SB3-SU1'!$AD$56</f>
-        <v>1024077996.5831033</v>
+        <v>1024146105.0040488</v>
       </c>
       <c r="AB27" s="27">
         <f>AA27*S27</f>
-        <v>12800974.957288792</v>
+        <v>12801826.312550612</v>
       </c>
     </row>
     <row r="28" spans="7:28" x14ac:dyDescent="0.3">
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="37"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="69"/>
+      <c r="Y28" s="68"/>
+      <c r="Z28" s="69"/>
+      <c r="AA28" s="68"/>
+      <c r="AB28" s="69"/>
     </row>
     <row r="29" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L29" s="3"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="33"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="55"/>
+      <c r="AB29" s="56"/>
     </row>
     <row r="30" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L30" s="16"/>
@@ -2164,69 +2245,69 @@
       </c>
       <c r="T30" s="14"/>
       <c r="U30" s="15"/>
-      <c r="V30" s="33"/>
+      <c r="V30" s="56"/>
       <c r="W30" s="27">
         <f>'[1]SB3-SU2'!$AD$56</f>
-        <v>785754236.3393687</v>
+        <v>784852718.09877813</v>
       </c>
       <c r="X30" s="27">
         <f>W30*S30</f>
-        <v>112952171.47378424</v>
+        <v>112822578.22669935</v>
       </c>
       <c r="Y30" s="27">
         <f>'[2]SB3-SU2'!$AD$56</f>
-        <v>744879136.44668579</v>
+        <v>743891752.53325224</v>
       </c>
       <c r="Z30" s="27">
         <f>Y30*S30</f>
-        <v>107076375.86421107</v>
+        <v>106934439.42665499</v>
       </c>
       <c r="AA30" s="27">
         <f>'[3]SB3-SU2'!$AD$56</f>
-        <v>1024088363.8122967</v>
+        <v>1024156983.9889494</v>
       </c>
       <c r="AB30" s="27">
         <f>AA30*S30</f>
-        <v>147212702.29801765</v>
+        <v>147222566.44841146</v>
       </c>
     </row>
     <row r="31" spans="7:28" x14ac:dyDescent="0.3">
       <c r="L31" s="3"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="37"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="68"/>
+      <c r="X31" s="69"/>
+      <c r="Y31" s="68"/>
+      <c r="Z31" s="69"/>
+      <c r="AA31" s="68"/>
+      <c r="AB31" s="69"/>
     </row>
     <row r="32" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L32" s="3"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="33"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="55"/>
+      <c r="AB32" s="56"/>
     </row>
     <row r="33" spans="12:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L33" s="16"/>
@@ -2248,38 +2329,38 @@
       </c>
       <c r="T33" s="14"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="33"/>
+      <c r="V33" s="56"/>
       <c r="W33" s="27">
         <f>'[1]SB3-SU3'!$AD$56</f>
-        <v>785884397.39704406</v>
+        <v>785119607.64782846</v>
       </c>
       <c r="X33" s="27">
         <f>W33*S33</f>
-        <v>73676662.255972877</v>
+        <v>73604963.216983914</v>
       </c>
       <c r="Y33" s="27">
         <f>'[2]SB3-SU3'!$AD$56</f>
-        <v>744887024.27098989</v>
+        <v>743907164.35125768</v>
       </c>
       <c r="Z33" s="27">
         <f>Y33*S33</f>
-        <v>69833158.525405303</v>
+        <v>69741296.657930404</v>
       </c>
       <c r="AA33" s="27">
         <f>'[3]SB3-SU3'!$AD$56</f>
-        <v>1024093916.5614003</v>
+        <v>1024167862.9738574</v>
       </c>
       <c r="AB33" s="27">
         <f>AA33*S33</f>
-        <v>96008804.677631274</v>
+        <v>96015737.153799132</v>
       </c>
     </row>
     <row r="34" spans="12:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W34" s="34"/>
+      <c r="W34" s="72"/>
       <c r="X34" s="29"/>
-      <c r="Y34" s="34"/>
+      <c r="Y34" s="72"/>
       <c r="Z34" s="29"/>
-      <c r="AA34" s="34"/>
+      <c r="AA34" s="72"/>
       <c r="AB34" s="29"/>
       <c r="AC34" s="2"/>
     </row>
@@ -2288,24 +2369,24 @@
         <f>SUM(S9:S33)</f>
         <v>1</v>
       </c>
-      <c r="U35" s="31" t="s">
+      <c r="U35" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="V35" s="32"/>
-      <c r="W35" s="35"/>
+      <c r="V35" s="71"/>
+      <c r="W35" s="73"/>
       <c r="X35" s="28">
         <f>SUM(X9,X12,X15,X18,X21,X24,X27,X30,X33)</f>
-        <v>725206839.37939799</v>
-      </c>
-      <c r="Y35" s="35"/>
+        <v>721206455.33757484</v>
+      </c>
+      <c r="Y35" s="73"/>
       <c r="Z35" s="28">
         <f>SUM(Z9,Z12,Z15,Z18,Z21,Z24,Z27,Z30,Z33)</f>
-        <v>687544696.26543534</v>
-      </c>
-      <c r="AA35" s="35"/>
+        <v>683556530.23310637</v>
+      </c>
+      <c r="AA35" s="73"/>
       <c r="AB35" s="28">
         <f>SUM(AB9,AB12,AB15,AB18,AB21,AB24,AB27,AB30,AB33,)</f>
-        <v>945167301.59288752</v>
+        <v>940986978.60260463</v>
       </c>
       <c r="AC35" s="2"/>
     </row>
@@ -2585,6 +2666,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="V7:V33"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="Y34:Y35"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="W28:X29"/>
+    <mergeCell ref="Y28:Z29"/>
+    <mergeCell ref="AA28:AB29"/>
+    <mergeCell ref="W31:X32"/>
+    <mergeCell ref="Y31:Z32"/>
+    <mergeCell ref="AA31:AB32"/>
+    <mergeCell ref="W22:X23"/>
+    <mergeCell ref="Y22:Z23"/>
+    <mergeCell ref="AA22:AB23"/>
+    <mergeCell ref="W25:X26"/>
+    <mergeCell ref="Y25:Z26"/>
+    <mergeCell ref="M28:U29"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA25:AB26"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="AA16:AB17"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="Y19:Z20"/>
+    <mergeCell ref="AA19:AB20"/>
+    <mergeCell ref="W3:X5"/>
+    <mergeCell ref="H19:K26"/>
+    <mergeCell ref="L25:U26"/>
+    <mergeCell ref="M22:U23"/>
+    <mergeCell ref="M19:U20"/>
     <mergeCell ref="B2:D5"/>
     <mergeCell ref="B8:C10"/>
     <mergeCell ref="M31:U32"/>
@@ -2601,40 +2716,6 @@
     <mergeCell ref="L5:N6"/>
     <mergeCell ref="G5:I6"/>
     <mergeCell ref="Q5:T6"/>
-    <mergeCell ref="W3:X5"/>
-    <mergeCell ref="H19:K26"/>
-    <mergeCell ref="L25:U26"/>
-    <mergeCell ref="M22:U23"/>
-    <mergeCell ref="M19:U20"/>
-    <mergeCell ref="M28:U29"/>
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA25:AB26"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="AA16:AB17"/>
-    <mergeCell ref="W19:X20"/>
-    <mergeCell ref="Y19:Z20"/>
-    <mergeCell ref="AA19:AB20"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="V7:V33"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="Y34:Y35"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="W28:X29"/>
-    <mergeCell ref="Y28:Z29"/>
-    <mergeCell ref="AA28:AB29"/>
-    <mergeCell ref="W31:X32"/>
-    <mergeCell ref="Y31:Z32"/>
-    <mergeCell ref="AA31:AB32"/>
-    <mergeCell ref="W22:X23"/>
-    <mergeCell ref="Y22:Z23"/>
-    <mergeCell ref="AA22:AB23"/>
-    <mergeCell ref="W25:X26"/>
-    <mergeCell ref="Y25:Z26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
